--- a/src/main/resources/static/template_store.xlsx
+++ b/src/main/resources/static/template_store.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="121">
   <si>
     <t>剩余数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,14 +43,6 @@
   </si>
   <si>
     <t>存储时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -248,14 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>莴笋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,18 +264,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-11-26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020-11-25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,51 +292,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2020-11-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平菇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆芽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹笋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂小倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂小倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂小倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂小倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-11-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豌豆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平菇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宽粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆芽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>竹笋</t>
+    <t>瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪碧（罐装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬达（罐装）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐(大瓶装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪碧(大瓶装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芬达(大瓶装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北冰洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可乐(罐装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆奶500ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆奶1L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸梅汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歪嘴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五粮液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张裕干红葡萄酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红星二锅头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯怡豆奶(2L装)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIO鸡尾酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否再用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,187 +504,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聂小倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聂小倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聂小倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聂小倩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈燕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪碧（罐装）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬达（罐装）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可乐(大瓶装)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪碧(大瓶装)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芬达(大瓶装)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北冰洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可乐(罐装)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆奶500ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒装白酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豆奶1L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸奶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸梅汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙汁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪花啤酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛啤酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奶茶粉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歪嘴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五粮液</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张裕干红葡萄酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红星二锅头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯怡豆奶(2L装)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RIO鸡尾酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否再用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白酒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,7 +910,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,7 +922,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -974,220 +934,220 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1163,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G23"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1214,531 +1174,531 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1753,7 +1713,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1764,531 +1724,531 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>118</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="1">
-        <v>20</v>
+        <v>103</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F10" s="1">
-        <v>20</v>
+        <v>118</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>118</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>6</v>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>118</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>72</v>
+        <v>109</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
